--- a/data/trans_camb/P38C-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Dificultad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-11.46233782573237</v>
+        <v>-11.46233782573236</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.441492899577613</v>
+        <v>-2.441492899577635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.253816739789975</v>
+        <v>-6.253816739789963</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.61798040116172</v>
+        <v>-16.95070932525853</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.243905845441439</v>
+        <v>-6.113246357839383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.454801901362844</v>
+        <v>-9.389575477637232</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.514289329741412</v>
+        <v>-5.591091841523717</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9497489190818075</v>
+        <v>0.7610814273675897</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.113830992014476</v>
+        <v>-2.705093538984898</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1445994213597717</v>
+        <v>-0.1445994213597716</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02802886714420651</v>
+        <v>-0.02802886714420676</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.07496112926374658</v>
+        <v>-0.07496112926374646</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2201552510302782</v>
+        <v>-0.212501779661171</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07070781427962319</v>
+        <v>-0.06882188817289833</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1124269660393053</v>
+        <v>-0.1109126800270882</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.08390708287648821</v>
+        <v>-0.07374254566380996</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01128924371423207</v>
+        <v>0.00857223670743208</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.03787268769836807</v>
+        <v>-0.03242175924947174</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>-2.73030602312232</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.953512898595211</v>
+        <v>-1.953512898595233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.238492482840992</v>
+        <v>-2.238492482841004</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.949970401171885</v>
+        <v>-7.481828887331872</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.047259630793174</v>
+        <v>-5.157800647740043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.9430913149341</v>
+        <v>-4.981498835440638</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.402911086099419</v>
+        <v>1.734109897559808</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6971489248519964</v>
+        <v>0.9113636608985988</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3981221662143136</v>
+        <v>0.1916165571135283</v>
       </c>
     </row>
     <row r="13">
@@ -724,10 +724,10 @@
         <v>-0.03396651555188713</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.02228921080151092</v>
+        <v>-0.02228921080151117</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02658331952856794</v>
+        <v>-0.02658331952856807</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0850888124582424</v>
+        <v>-0.09157706834371536</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05661870464683394</v>
+        <v>-0.05783896047115352</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05763706203584296</v>
+        <v>-0.05835018413276886</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01731524403539842</v>
+        <v>0.02192930890269862</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.008190126908805514</v>
+        <v>0.01056117418389819</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.004831296512795632</v>
+        <v>0.002199588325459315</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-1.592465669765197</v>
+        <v>-1.592465669765208</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-3.516238767511115</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.483619187909558</v>
+        <v>-2.48361918790958</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.933887521539699</v>
+        <v>-5.249360784966663</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.572101927160652</v>
+        <v>-6.46762564277205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.778703985842242</v>
+        <v>-4.850105690143246</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.271203415711995</v>
+        <v>2.136839405255419</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.504568604764241</v>
+        <v>-0.6482090492202234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1323131188552451</v>
+        <v>-0.1857710060963149</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.01851286176910394</v>
+        <v>-0.01851286176910407</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.03885174659970736</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.0281619858582169</v>
+        <v>-0.02816198585821715</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05702807637963551</v>
+        <v>-0.06038183467295381</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07164173545250363</v>
+        <v>-0.07057410741295532</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05334647253102834</v>
+        <v>-0.05445759978910392</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0269919112218686</v>
+        <v>0.02525939592822913</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.005724094118712499</v>
+        <v>-0.007643917075864149</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.001334827730537912</v>
+        <v>-0.002113362266788553</v>
       </c>
     </row>
     <row r="22">
@@ -885,7 +885,7 @@
         <v>1.46636484786502</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>5.123339527861925</v>
+        <v>5.123339527861937</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>3.200474502712869</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.203628451371799</v>
+        <v>-3.861971799172972</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8331620089431298</v>
+        <v>1.128221092909698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2990914246364693</v>
+        <v>-0.05007333415710602</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.579046280444103</v>
+        <v>5.997701965742174</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.157193650278405</v>
+        <v>9.954109800855209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.206289193908174</v>
+        <v>6.352869865840857</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         <v>0.0181396264025016</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.06158544034274543</v>
+        <v>0.06158544034274556</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.03903326395673735</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03880574248530522</v>
+        <v>-0.04579175437918816</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.009971625071665682</v>
+        <v>0.01265335912275787</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.003602308294091355</v>
+        <v>0.0002023645507382103</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.08461970505908256</v>
+        <v>0.07721596853226979</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.114778882784108</v>
+        <v>0.1251423430112659</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.07769122511990179</v>
+        <v>0.08022315277529508</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-1.877630577507494</v>
+        <v>-1.877630577507483</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-0.9328148622568588</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.384265291845244</v>
+        <v>-1.384265291845255</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.046108517121915</v>
+        <v>-3.944153164279589</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.675028242953677</v>
+        <v>-2.510974290707166</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.765450433064419</v>
+        <v>-2.757698352756543</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.151328614581139</v>
+        <v>0.3138910749245536</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6847428608536797</v>
+        <v>0.6633422841020689</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1204563733095761</v>
+        <v>0.01731499326502863</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.02305030660808516</v>
+        <v>-0.02305030660808502</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.01066550917858367</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.01637447858498796</v>
+        <v>-0.01637447858498809</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04902973953435398</v>
+        <v>-0.04782010415502157</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03033735120309245</v>
+        <v>-0.02843901003678747</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03272013752576792</v>
+        <v>-0.03247637830156348</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.001875934592182816</v>
+        <v>0.003913243212504699</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.007986149882785992</v>
+        <v>0.007645259220777991</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.001428856296999137</v>
+        <v>0.0002040548230210519</v>
       </c>
     </row>
     <row r="34">
